--- a/MakeMoreMoney.xlsx
+++ b/MakeMoreMoney.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzbqrr\Desktop\MakeMoreMoney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797EF8B-1C6B-4E5B-8948-2860610CCEBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18492A2-8EE1-476A-878E-32F0CC02D5DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535" xr2:uid="{83293AED-B13B-44AE-BE71-2450F74312A8}"/>
   </bookViews>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赡养老人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子女抚养</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房贷还款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,6 +236,14 @@
   </si>
   <si>
     <t>税后工资计算器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赡养老人(60岁以上)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子女抚养(3岁以上)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +898,94 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,6 +1000,18 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -925,61 +1024,37 @@
     <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,55 +1075,40 @@
     <xf numFmtId="176" fontId="7" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,7 +1117,10 @@
     <xf numFmtId="176" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,69 +1131,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA74F41-F140-44CD-87C3-EBE0F5164B7E}">
   <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1479,203 +1479,203 @@
   <sheetData>
     <row r="1" spans="2:23" ht="21" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="80"/>
+      <c r="B2" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="2:23" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="83"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="2:23" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="86"/>
+      <c r="B4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31"/>
     </row>
     <row r="5" spans="2:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="75" t="s">
+      <c r="F5" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="77" t="s">
-        <v>33</v>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="31" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="31" t="s">
+      <c r="J6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="21" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="36"/>
+      <c r="T6" s="48"/>
     </row>
     <row r="7" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25">
+      <c r="B7" s="14">
         <v>27000</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="15">
         <v>94500</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="16">
         <v>27000</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="16">
         <v>27000</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="17">
         <v>28221</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="17">
         <v>28221</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="19">
         <v>0.08</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="19">
         <v>0.02</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="20">
         <v>3</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="19">
         <v>2E-3</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="22">
         <v>0.12</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="22">
         <v>0.12</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
@@ -1689,109 +1689,109 @@
       <c r="S7" s="4">
         <v>0</v>
       </c>
-      <c r="T7" s="37">
+      <c r="T7" s="23">
         <v>5000</v>
       </c>
     </row>
     <row r="8" spans="2:23" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="90"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="28"/>
     </row>
     <row r="9" spans="2:23" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="40"/>
+      <c r="B9" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
     </row>
     <row r="10" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="18" t="s">
+      <c r="P10" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" s="42"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="67"/>
     </row>
     <row r="11" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="12" t="s">
         <v>0</v>
       </c>
@@ -1801,19 +1801,19 @@
       <c r="G11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="44"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="69"/>
     </row>
     <row r="12" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="J12" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B12</f>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="K12" s="10">
         <f>T7*B12</f>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="L12" s="8">
         <f>D12-I12-J12-K12</f>
-        <v>13503</v>
+        <v>14503</v>
       </c>
       <c r="M12" s="8">
         <f>IF(L12&lt;=0,0,IF(L12&lt;=36000,3%,IF(L12&lt;=144000,10%,IF(L12&lt;=300000,20%,IF(L12&lt;=420000,25%,IF(L12&lt;=660000,30%,IF(L12&lt;=960000,35%,45%)))))))</f>
@@ -1869,19 +1869,19 @@
       </c>
       <c r="O12" s="8">
         <f>L12*M12-N12</f>
-        <v>405.09</v>
+        <v>435.09</v>
       </c>
       <c r="P12" s="6">
         <f>C12-E12-F12-G12-H12-O12</f>
-        <v>20597.91</v>
-      </c>
-      <c r="Q12" s="13">
+        <v>20567.91</v>
+      </c>
+      <c r="Q12" s="35">
         <f>P12+H12+MIN(E7, G7)*M7</f>
-        <v>27077.91</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="44"/>
+        <v>27047.91</v>
+      </c>
+      <c r="R12" s="35"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="69"/>
     </row>
     <row r="13" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="J13" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B13</f>
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="K13" s="10">
         <f>T7*B13</f>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="L13" s="8">
         <f t="shared" ref="L13:L23" si="2">D13-I13-J13-K13</f>
-        <v>27006</v>
+        <v>29006</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" ref="M13:M24" si="3">IF(L13&lt;=0,0,IF(L13&lt;=36000,3%,IF(L13&lt;=144000,10%,IF(L13&lt;=300000,20%,IF(L13&lt;=420000,25%,IF(L13&lt;=660000,30%,IF(L13&lt;=960000,35%,45%)))))))</f>
@@ -1937,19 +1937,19 @@
       </c>
       <c r="O13" s="8">
         <f>L13*M13-N13-O12</f>
-        <v>405.09</v>
+        <v>435.09</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" ref="P13:P23" si="5">C13-E13-F13-G13-H13-O13</f>
-        <v>20597.91</v>
-      </c>
-      <c r="Q13" s="13">
+        <v>20567.91</v>
+      </c>
+      <c r="Q13" s="35">
         <f>P13+H13+MIN(E7, G7)*M7</f>
-        <v>27077.91</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="44"/>
+        <v>27047.91</v>
+      </c>
+      <c r="R13" s="35"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="69"/>
     </row>
     <row r="14" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="J14" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B14</f>
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="K14" s="10">
         <f>T7*B14</f>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="L14" s="8">
         <f t="shared" si="2"/>
-        <v>40509</v>
+        <v>43509</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" si="3"/>
@@ -2005,19 +2005,19 @@
       </c>
       <c r="O14" s="8">
         <f>L14*M14-N14-O13-O12</f>
-        <v>720.72000000000025</v>
+        <v>960.72000000000071</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="5"/>
-        <v>20282.28</v>
-      </c>
-      <c r="Q14" s="13">
+        <v>20042.28</v>
+      </c>
+      <c r="Q14" s="35">
         <f>P14+H14+MIN(E7, G7)*M7</f>
-        <v>26762.28</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="44"/>
+        <v>26522.28</v>
+      </c>
+      <c r="R14" s="35"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="69"/>
     </row>
     <row r="15" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="J15" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B15</f>
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="K15" s="10">
         <f>T7*B15</f>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="L15" s="8">
         <f t="shared" si="2"/>
-        <v>54012</v>
+        <v>58012</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" si="3"/>
@@ -2073,19 +2073,19 @@
       </c>
       <c r="O15" s="8">
         <f>L15*M15-N15-O14-O13-O12</f>
-        <v>1350.3000000000006</v>
+        <v>1450.3000000000002</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="5"/>
-        <v>19652.7</v>
-      </c>
-      <c r="Q15" s="13">
+        <v>19552.7</v>
+      </c>
+      <c r="Q15" s="35">
         <f>P15+H15+MIN(E7, G7)*M7</f>
-        <v>26132.7</v>
-      </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="44"/>
+        <v>26032.7</v>
+      </c>
+      <c r="R15" s="35"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="69"/>
     </row>
     <row r="16" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="J16" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B16</f>
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="K16" s="10">
         <f>T7*B16</f>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="L16" s="8">
         <f t="shared" si="2"/>
-        <v>67515</v>
+        <v>72515</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="3"/>
@@ -2141,19 +2141,19 @@
       </c>
       <c r="O16" s="8">
         <f>L16*M16-N16-O15-O14-O13-O12</f>
-        <v>1350.2999999999993</v>
+        <v>1450.2999999999993</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="5"/>
-        <v>19652.7</v>
-      </c>
-      <c r="Q16" s="13">
+        <v>19552.7</v>
+      </c>
+      <c r="Q16" s="35">
         <f>P16+H16+MIN(E7, G7)*M7</f>
-        <v>26132.7</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="44"/>
+        <v>26032.7</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="69"/>
     </row>
     <row r="17" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="J17" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B17</f>
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="K17" s="10">
         <f>T7*B17</f>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="L17" s="8">
         <f t="shared" si="2"/>
-        <v>81018</v>
+        <v>87018</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="3"/>
@@ -2209,19 +2209,19 @@
       </c>
       <c r="O17" s="8">
         <f>L17*M17-N17-O16-O15-O14-O13-O12</f>
-        <v>1350.3000000000002</v>
+        <v>1450.3000000000011</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="5"/>
-        <v>19652.7</v>
-      </c>
-      <c r="Q17" s="13">
+        <v>19552.699999999997</v>
+      </c>
+      <c r="Q17" s="35">
         <f>P17+H17+MIN(E7, G7)*M7</f>
-        <v>26132.7</v>
-      </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="44"/>
+        <v>26032.699999999997</v>
+      </c>
+      <c r="R17" s="35"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="69"/>
     </row>
     <row r="18" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="J18" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B18</f>
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="K18" s="10">
         <f>T7*B18</f>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="L18" s="8">
         <f t="shared" si="2"/>
-        <v>94521</v>
+        <v>101521</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" si="3"/>
@@ -2277,19 +2277,19 @@
       </c>
       <c r="O18" s="8">
         <f>L18*M18-N18-O17-O16-O15-O14-O13-O12</f>
-        <v>1350.3000000000002</v>
+        <v>1450.2999999999993</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="5"/>
-        <v>19652.7</v>
-      </c>
-      <c r="Q18" s="13">
+        <v>19552.7</v>
+      </c>
+      <c r="Q18" s="35">
         <f>P18+H18+MIN(E7, G7)*M7</f>
-        <v>26132.7</v>
-      </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="44"/>
+        <v>26032.7</v>
+      </c>
+      <c r="R18" s="35"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="69"/>
     </row>
     <row r="19" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="J19" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B19</f>
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="K19" s="10">
         <f>T7*B19</f>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="L19" s="8">
         <f t="shared" si="2"/>
-        <v>108024</v>
+        <v>116024</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="3"/>
@@ -2345,19 +2345,19 @@
       </c>
       <c r="O19" s="8">
         <f>L19*M19-N19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>1350.3000000000011</v>
+        <v>1450.3000000000011</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="5"/>
-        <v>19652.699999999997</v>
-      </c>
-      <c r="Q19" s="13">
+        <v>19552.699999999997</v>
+      </c>
+      <c r="Q19" s="35">
         <f>P19+H19+MIN(E7, G7)*M7</f>
-        <v>26132.699999999997</v>
-      </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="44"/>
+        <v>26032.699999999997</v>
+      </c>
+      <c r="R19" s="35"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="69"/>
     </row>
     <row r="20" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="J20" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B20</f>
-        <v>22500</v>
+        <v>13500</v>
       </c>
       <c r="K20" s="10">
         <f>T7*B20</f>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="L20" s="8">
         <f t="shared" si="2"/>
-        <v>121527</v>
+        <v>130527</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" si="3"/>
@@ -2413,19 +2413,19 @@
       </c>
       <c r="O20" s="8">
         <f>L20*M20-N20-O19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>1350.2999999999993</v>
+        <v>1450.2999999999993</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="5"/>
-        <v>19652.7</v>
-      </c>
-      <c r="Q20" s="13">
+        <v>19552.7</v>
+      </c>
+      <c r="Q20" s="35">
         <f>P20+H20+MIN(E7, G7)*M7</f>
-        <v>26132.7</v>
-      </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="44"/>
+        <v>26032.7</v>
+      </c>
+      <c r="R20" s="35"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="69"/>
     </row>
     <row r="21" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J21" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B21</f>
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="K21" s="10">
         <f>T7*B21</f>
@@ -2469,31 +2469,31 @@
       </c>
       <c r="L21" s="8">
         <f t="shared" si="2"/>
-        <v>135030</v>
+        <v>145030</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" si="4"/>
-        <v>2520</v>
+        <v>16920</v>
       </c>
       <c r="O21" s="8">
         <f>L21*M21-N21-O20-O19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>1350.2999999999993</v>
+        <v>1553.2999999999993</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="5"/>
-        <v>19652.7</v>
-      </c>
-      <c r="Q21" s="13">
+        <v>19449.7</v>
+      </c>
+      <c r="Q21" s="35">
         <f>P21+H21+MIN(E7, G7)*M7</f>
-        <v>26132.7</v>
-      </c>
-      <c r="R21" s="13"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="44"/>
+        <v>25929.7</v>
+      </c>
+      <c r="R21" s="35"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="69"/>
     </row>
     <row r="22" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="J22" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B22</f>
-        <v>27500</v>
+        <v>16500</v>
       </c>
       <c r="K22" s="10">
         <f>T7*B22</f>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="L22" s="8">
         <f t="shared" si="2"/>
-        <v>148533</v>
+        <v>159533</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" si="3"/>
@@ -2549,19 +2549,19 @@
       </c>
       <c r="O22" s="8">
         <f>L22*M22-N22-O21-O20-O19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>1803.600000000002</v>
+        <v>2900.6000000000017</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="5"/>
-        <v>19199.399999999998</v>
-      </c>
-      <c r="Q22" s="13">
+        <v>18102.399999999998</v>
+      </c>
+      <c r="Q22" s="35">
         <f>P22+H22+MIN(E7, G7)*M7</f>
-        <v>25679.399999999998</v>
-      </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="44"/>
+        <v>24582.399999999998</v>
+      </c>
+      <c r="R22" s="35"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="69"/>
     </row>
     <row r="23" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="J23" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B23</f>
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="K23" s="10">
         <f>T7*B23</f>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="L23" s="8">
         <f t="shared" si="2"/>
-        <v>162036</v>
+        <v>174036</v>
       </c>
       <c r="M23" s="8">
         <f t="shared" si="3"/>
@@ -2617,19 +2617,19 @@
       </c>
       <c r="O23" s="8">
         <f>L23*M23-N23-O22-O21-O20-O19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>2700.5999999999976</v>
+        <v>2900.6000000000017</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="5"/>
-        <v>18302.400000000001</v>
-      </c>
-      <c r="Q23" s="13">
+        <v>18102.399999999998</v>
+      </c>
+      <c r="Q23" s="35">
         <f>P23+H23+MIN(E7, G7)*M7</f>
-        <v>24782.400000000001</v>
-      </c>
-      <c r="R23" s="13"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="44"/>
+        <v>24582.399999999998</v>
+      </c>
+      <c r="R23" s="35"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="69"/>
     </row>
     <row r="24" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
@@ -2649,10 +2649,10 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="22"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="5">
         <f>L23+C7</f>
-        <v>256536</v>
+        <v>268536</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="3"/>
@@ -2670,446 +2670,446 @@
         <f>C7-O24</f>
         <v>75600</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="35">
         <f>P24</f>
         <v>75600</v>
       </c>
-      <c r="R24" s="13"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="44"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="69"/>
     </row>
     <row r="25" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="P25" s="47">
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="24">
         <f>SUM(P12:P23)</f>
-        <v>236548.8</v>
-      </c>
-      <c r="Q25" s="49">
+        <v>234148.8</v>
+      </c>
+      <c r="Q25" s="59">
         <f>SUM(Q12:Q23)</f>
-        <v>314308.8000000001</v>
-      </c>
-      <c r="R25" s="49"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="44"/>
+        <v>311908.8000000001</v>
+      </c>
+      <c r="R25" s="59"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="69"/>
     </row>
     <row r="26" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="47">
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="24">
         <f>C7</f>
         <v>94500</v>
       </c>
-      <c r="M26" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="47">
+      <c r="M26" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="24">
         <f>P24</f>
         <v>75600</v>
       </c>
-      <c r="O26" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="P26" s="47">
+      <c r="O26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="24">
         <f>SUM(P12:P24)</f>
-        <v>312148.8</v>
-      </c>
-      <c r="Q26" s="49">
+        <v>309748.8</v>
+      </c>
+      <c r="Q26" s="59">
         <f>SUM(Q12:Q24)</f>
-        <v>389908.8000000001</v>
-      </c>
-      <c r="R26" s="49"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="44"/>
+        <v>387508.8000000001</v>
+      </c>
+      <c r="R26" s="59"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="69"/>
     </row>
     <row r="27" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="44"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="69"/>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66">
+      <c r="B28" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="57">
         <f>P25</f>
-        <v>236548.8</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="44"/>
+        <v>234148.8</v>
+      </c>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="69"/>
     </row>
     <row r="29" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="44"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="69"/>
     </row>
     <row r="30" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="44"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="69"/>
     </row>
     <row r="31" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66">
+      <c r="B31" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="57">
         <f>P26</f>
-        <v>312148.8</v>
-      </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="44"/>
+        <v>309748.8</v>
+      </c>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="69"/>
     </row>
     <row r="32" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="44"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="69"/>
     </row>
     <row r="33" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="44"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="69"/>
     </row>
     <row r="34" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66">
+      <c r="B34" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="57">
         <f>Q25-P25</f>
         <v>77760.000000000116</v>
       </c>
-      <c r="G34" s="66"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="44"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="69"/>
     </row>
     <row r="35" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="44"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="69"/>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="44"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="69"/>
     </row>
     <row r="37" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66">
+      <c r="B37" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="57">
         <f>F31+F34</f>
-        <v>389908.8000000001</v>
-      </c>
-      <c r="G37" s="66"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="44"/>
+        <v>387508.8000000001</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="69"/>
     </row>
     <row r="38" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="44"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="69"/>
     </row>
     <row r="39" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="44"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="69"/>
     </row>
     <row r="40" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66">
+      <c r="B40" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="57">
         <f>SUM(O12:O24)</f>
-        <v>34387.200000000012</v>
-      </c>
-      <c r="G40" s="66"/>
-      <c r="H40" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="44"/>
+        <v>36787.200000000012</v>
+      </c>
+      <c r="G40" s="57"/>
+      <c r="H40" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="69"/>
     </row>
     <row r="41" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="44"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="69"/>
     </row>
     <row r="42" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="67"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="46"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="71"/>
     </row>
     <row r="43" spans="2:20" ht="21" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -3155,6 +3155,7 @@
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="B9:T9"/>
     <mergeCell ref="Q13:R13"/>
@@ -3171,7 +3172,6 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P10:P11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MakeMoreMoney.xlsx
+++ b/MakeMoreMoney.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzbqrr\Desktop\MakeMoreMoney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18492A2-8EE1-476A-878E-32F0CC02D5DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4795C662-1DA5-4197-BF2C-B35E7E15350F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535" xr2:uid="{83293AED-B13B-44AE-BE71-2450F74312A8}"/>
   </bookViews>
@@ -186,64 +186,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>社保缴费基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金缴费基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另有公积金(个人+公司)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不算年终，年税后收入：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算年终奖，年税后收入：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艰苦奋斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保(三险)缴费比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房贷还款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的税后工资收入(无公积金、不含年终奖)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的税后工资收入(无公积金、含年终奖)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的税后全部收入(工资+年终+公积金)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税后工资计算器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赡养老人(60岁以上)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子女抚养(3岁以上)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>李展博 2021.10.29
-lzbqrr@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社保缴费基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公积金缴费基数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另有公积金(个人+公司)：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不算年终，年税后收入：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算年终奖，年税后收入：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艰苦奋斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社保(三险)缴费比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房贷还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的税后工资收入(无公积金、不含年终奖)：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的税后工资收入(无公积金、含年终奖)：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的税后全部收入(工资+年终+公积金)：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税后工资计算器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赡养老人(60岁以上)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子女抚养(3岁以上)</t>
+lzbqrr@163.com
+项目地址：https://github.com/LZBUAV/MakeMoreMoney</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA74F41-F140-44CD-87C3-EBE0F5164B7E}">
   <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1480,7 +1481,7 @@
     <row r="1" spans="2:23" ht="21" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -1553,10 +1554,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="55" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="41" t="s">
         <v>25</v>
@@ -1565,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
@@ -1618,13 +1619,13 @@
         <v>21</v>
       </c>
       <c r="O6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="Q6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>22</v>
@@ -1636,16 +1637,16 @@
     </row>
     <row r="7" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="C7" s="15">
-        <v>94500</v>
+        <v>20000</v>
       </c>
       <c r="D7" s="16">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="E7" s="16">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="F7" s="17">
         <v>28221</v>
@@ -1784,7 +1785,7 @@
       </c>
       <c r="R10" s="51"/>
       <c r="S10" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T10" s="67"/>
     </row>
@@ -1821,31 +1822,31 @@
       </c>
       <c r="C12" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D12" s="11">
         <f>C12*B12</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="E12" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F12" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G12" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H12" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I12" s="12">
         <f>(E12+F12+G12+H12)*B12</f>
-        <v>5997</v>
+        <v>2001</v>
       </c>
       <c r="J12" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B12</f>
@@ -1857,7 +1858,7 @@
       </c>
       <c r="L12" s="8">
         <f>D12-I12-J12-K12</f>
-        <v>14503</v>
+        <v>499</v>
       </c>
       <c r="M12" s="8">
         <f>IF(L12&lt;=0,0,IF(L12&lt;=36000,3%,IF(L12&lt;=144000,10%,IF(L12&lt;=300000,20%,IF(L12&lt;=420000,25%,IF(L12&lt;=660000,30%,IF(L12&lt;=960000,35%,45%)))))))</f>
@@ -1869,15 +1870,15 @@
       </c>
       <c r="O12" s="8">
         <f>L12*M12-N12</f>
-        <v>435.09</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P12" s="6">
         <f>C12-E12-F12-G12-H12-O12</f>
-        <v>20567.91</v>
+        <v>6984.03</v>
       </c>
       <c r="Q12" s="35">
         <f>P12+H12+MIN(E7, G7)*M7</f>
-        <v>27047.91</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R12" s="35"/>
       <c r="S12" s="68"/>
@@ -1889,31 +1890,31 @@
       </c>
       <c r="C13" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" ref="D13:D23" si="0">C13*B13</f>
-        <v>54000</v>
+        <v>18000</v>
       </c>
       <c r="E13" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F13" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G13" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H13" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I13" s="12">
         <f t="shared" ref="I13:I23" si="1">(E13+F13+G13+H13)*B13</f>
-        <v>11994</v>
+        <v>4002</v>
       </c>
       <c r="J13" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B13</f>
@@ -1925,7 +1926,7 @@
       </c>
       <c r="L13" s="8">
         <f t="shared" ref="L13:L23" si="2">D13-I13-J13-K13</f>
-        <v>29006</v>
+        <v>998</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" ref="M13:M24" si="3">IF(L13&lt;=0,0,IF(L13&lt;=36000,3%,IF(L13&lt;=144000,10%,IF(L13&lt;=300000,20%,IF(L13&lt;=420000,25%,IF(L13&lt;=660000,30%,IF(L13&lt;=960000,35%,45%)))))))</f>
@@ -1937,15 +1938,15 @@
       </c>
       <c r="O13" s="8">
         <f>L13*M13-N13-O12</f>
-        <v>435.09</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" ref="P13:P23" si="5">C13-E13-F13-G13-H13-O13</f>
-        <v>20567.91</v>
+        <v>6984.03</v>
       </c>
       <c r="Q13" s="35">
         <f>P13+H13+MIN(E7, G7)*M7</f>
-        <v>27047.91</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R13" s="35"/>
       <c r="S13" s="68"/>
@@ -1957,31 +1958,31 @@
       </c>
       <c r="C14" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>81000</v>
+        <v>27000</v>
       </c>
       <c r="E14" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F14" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G14" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H14" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I14" s="12">
         <f t="shared" si="1"/>
-        <v>17991</v>
+        <v>6003</v>
       </c>
       <c r="J14" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B14</f>
@@ -1993,27 +1994,27 @@
       </c>
       <c r="L14" s="8">
         <f t="shared" si="2"/>
-        <v>43509</v>
+        <v>1497</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="4"/>
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="O14" s="8">
         <f>L14*M14-N14-O13-O12</f>
-        <v>960.72000000000071</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="5"/>
-        <v>20042.28</v>
+        <v>6984.03</v>
       </c>
       <c r="Q14" s="35">
         <f>P14+H14+MIN(E7, G7)*M7</f>
-        <v>26522.28</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R14" s="35"/>
       <c r="S14" s="68"/>
@@ -2025,31 +2026,31 @@
       </c>
       <c r="C15" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>108000</v>
+        <v>36000</v>
       </c>
       <c r="E15" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F15" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G15" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H15" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I15" s="12">
         <f t="shared" si="1"/>
-        <v>23988</v>
+        <v>8004</v>
       </c>
       <c r="J15" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B15</f>
@@ -2061,27 +2062,27 @@
       </c>
       <c r="L15" s="8">
         <f t="shared" si="2"/>
-        <v>58012</v>
+        <v>1996</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="4"/>
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="O15" s="8">
         <f>L15*M15-N15-O14-O13-O12</f>
-        <v>1450.3000000000002</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="5"/>
-        <v>19552.7</v>
+        <v>6984.03</v>
       </c>
       <c r="Q15" s="35">
         <f>P15+H15+MIN(E7, G7)*M7</f>
-        <v>26032.7</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R15" s="35"/>
       <c r="S15" s="68"/>
@@ -2093,31 +2094,31 @@
       </c>
       <c r="C16" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>135000</v>
+        <v>45000</v>
       </c>
       <c r="E16" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F16" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G16" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H16" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I16" s="12">
         <f t="shared" si="1"/>
-        <v>29985</v>
+        <v>10005</v>
       </c>
       <c r="J16" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B16</f>
@@ -2129,27 +2130,27 @@
       </c>
       <c r="L16" s="8">
         <f t="shared" si="2"/>
-        <v>72515</v>
+        <v>2495</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="4"/>
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="O16" s="8">
         <f>L16*M16-N16-O15-O14-O13-O12</f>
-        <v>1450.2999999999993</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="5"/>
-        <v>19552.7</v>
+        <v>6984.03</v>
       </c>
       <c r="Q16" s="35">
         <f>P16+H16+MIN(E7, G7)*M7</f>
-        <v>26032.7</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R16" s="35"/>
       <c r="S16" s="68"/>
@@ -2161,31 +2162,31 @@
       </c>
       <c r="C17" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>162000</v>
+        <v>54000</v>
       </c>
       <c r="E17" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F17" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G17" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H17" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I17" s="12">
         <f t="shared" si="1"/>
-        <v>35982</v>
+        <v>12006</v>
       </c>
       <c r="J17" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B17</f>
@@ -2197,27 +2198,27 @@
       </c>
       <c r="L17" s="8">
         <f t="shared" si="2"/>
-        <v>87018</v>
+        <v>2994</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="4"/>
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="O17" s="8">
         <f>L17*M17-N17-O16-O15-O14-O13-O12</f>
-        <v>1450.3000000000011</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="5"/>
-        <v>19552.699999999997</v>
+        <v>6984.03</v>
       </c>
       <c r="Q17" s="35">
         <f>P17+H17+MIN(E7, G7)*M7</f>
-        <v>26032.699999999997</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R17" s="35"/>
       <c r="S17" s="68"/>
@@ -2229,31 +2230,31 @@
       </c>
       <c r="C18" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>189000</v>
+        <v>63000</v>
       </c>
       <c r="E18" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F18" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G18" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H18" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I18" s="12">
         <f t="shared" si="1"/>
-        <v>41979</v>
+        <v>14007</v>
       </c>
       <c r="J18" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B18</f>
@@ -2265,27 +2266,27 @@
       </c>
       <c r="L18" s="8">
         <f t="shared" si="2"/>
-        <v>101521</v>
+        <v>3493</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" si="4"/>
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="O18" s="8">
         <f>L18*M18-N18-O17-O16-O15-O14-O13-O12</f>
-        <v>1450.2999999999993</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="5"/>
-        <v>19552.7</v>
+        <v>6984.03</v>
       </c>
       <c r="Q18" s="35">
         <f>P18+H18+MIN(E7, G7)*M7</f>
-        <v>26032.7</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R18" s="35"/>
       <c r="S18" s="68"/>
@@ -2297,31 +2298,31 @@
       </c>
       <c r="C19" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>216000</v>
+        <v>72000</v>
       </c>
       <c r="E19" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F19" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G19" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H19" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I19" s="12">
         <f t="shared" si="1"/>
-        <v>47976</v>
+        <v>16008</v>
       </c>
       <c r="J19" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B19</f>
@@ -2333,27 +2334,27 @@
       </c>
       <c r="L19" s="8">
         <f t="shared" si="2"/>
-        <v>116024</v>
+        <v>3992</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="4"/>
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="O19" s="8">
         <f>L19*M19-N19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>1450.3000000000011</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="5"/>
-        <v>19552.699999999997</v>
+        <v>6984.03</v>
       </c>
       <c r="Q19" s="35">
         <f>P19+H19+MIN(E7, G7)*M7</f>
-        <v>26032.699999999997</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R19" s="35"/>
       <c r="S19" s="68"/>
@@ -2365,31 +2366,31 @@
       </c>
       <c r="C20" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>243000</v>
+        <v>81000</v>
       </c>
       <c r="E20" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F20" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G20" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H20" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I20" s="12">
         <f t="shared" si="1"/>
-        <v>53973</v>
+        <v>18009</v>
       </c>
       <c r="J20" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B20</f>
@@ -2401,27 +2402,27 @@
       </c>
       <c r="L20" s="8">
         <f t="shared" si="2"/>
-        <v>130527</v>
+        <v>4491</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" si="4"/>
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="O20" s="8">
         <f>L20*M20-N20-O19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>1450.2999999999993</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="5"/>
-        <v>19552.7</v>
+        <v>6984.03</v>
       </c>
       <c r="Q20" s="35">
         <f>P20+H20+MIN(E7, G7)*M7</f>
-        <v>26032.7</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R20" s="35"/>
       <c r="S20" s="68"/>
@@ -2433,31 +2434,31 @@
       </c>
       <c r="C21" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>270000</v>
+        <v>90000</v>
       </c>
       <c r="E21" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F21" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G21" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H21" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I21" s="12">
         <f t="shared" si="1"/>
-        <v>59970</v>
+        <v>20010</v>
       </c>
       <c r="J21" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B21</f>
@@ -2469,27 +2470,27 @@
       </c>
       <c r="L21" s="8">
         <f t="shared" si="2"/>
-        <v>145030</v>
+        <v>4990</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" si="4"/>
-        <v>16920</v>
+        <v>0</v>
       </c>
       <c r="O21" s="8">
         <f>L21*M21-N21-O20-O19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>1553.2999999999993</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="5"/>
-        <v>19449.7</v>
+        <v>6984.03</v>
       </c>
       <c r="Q21" s="35">
         <f>P21+H21+MIN(E7, G7)*M7</f>
-        <v>25929.7</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R21" s="35"/>
       <c r="S21" s="68"/>
@@ -2501,31 +2502,31 @@
       </c>
       <c r="C22" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>297000</v>
+        <v>99000</v>
       </c>
       <c r="E22" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F22" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G22" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H22" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="1"/>
-        <v>65967</v>
+        <v>22011</v>
       </c>
       <c r="J22" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B22</f>
@@ -2537,27 +2538,27 @@
       </c>
       <c r="L22" s="8">
         <f t="shared" si="2"/>
-        <v>159533</v>
+        <v>5489</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" si="4"/>
-        <v>16920</v>
+        <v>0</v>
       </c>
       <c r="O22" s="8">
         <f>L22*M22-N22-O21-O20-O19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>2900.6000000000017</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="5"/>
-        <v>18102.399999999998</v>
+        <v>6984.03</v>
       </c>
       <c r="Q22" s="35">
         <f>P22+H22+MIN(E7, G7)*M7</f>
-        <v>24582.399999999998</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R22" s="35"/>
       <c r="S22" s="68"/>
@@ -2569,31 +2570,31 @@
       </c>
       <c r="C23" s="11">
         <f>B7</f>
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>324000</v>
+        <v>108000</v>
       </c>
       <c r="E23" s="12">
         <f>MIN(D7,F7)*H7</f>
-        <v>2160</v>
+        <v>720</v>
       </c>
       <c r="F23" s="12">
         <f>MIN(D7,F7)*I7+J7</f>
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="G23" s="12">
         <f>MIN(D7,F7)*K7</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H23" s="12">
         <f>MIN(E7,G7)*L7</f>
-        <v>3240</v>
+        <v>1080</v>
       </c>
       <c r="I23" s="12">
         <f t="shared" si="1"/>
-        <v>71964</v>
+        <v>24012</v>
       </c>
       <c r="J23" s="9">
         <f>(N7+O7+P7+Q7+R7+S7)*B23</f>
@@ -2605,27 +2606,27 @@
       </c>
       <c r="L23" s="8">
         <f t="shared" si="2"/>
-        <v>174036</v>
+        <v>5988</v>
       </c>
       <c r="M23" s="8">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="N23" s="8">
         <f t="shared" si="4"/>
-        <v>16920</v>
+        <v>0</v>
       </c>
       <c r="O23" s="8">
         <f>L23*M23-N23-O22-O21-O20-O19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>2900.6000000000017</v>
+        <v>14.969999999999999</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="5"/>
-        <v>18102.399999999998</v>
+        <v>6984.03</v>
       </c>
       <c r="Q23" s="35">
         <f>P23+H23+MIN(E7, G7)*M7</f>
-        <v>24582.399999999998</v>
+        <v>9144.0299999999988</v>
       </c>
       <c r="R23" s="35"/>
       <c r="S23" s="68"/>
@@ -2637,11 +2638,11 @@
       </c>
       <c r="C24" s="11">
         <f>C7</f>
-        <v>94500</v>
+        <v>20000</v>
       </c>
       <c r="D24" s="11">
         <f>D23+C7</f>
-        <v>418500</v>
+        <v>128000</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -2652,27 +2653,27 @@
       <c r="K24" s="13"/>
       <c r="L24" s="5">
         <f>L23+C7</f>
-        <v>268536</v>
+        <v>25988</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="4"/>
-        <v>16920</v>
+        <v>0</v>
       </c>
       <c r="O24" s="8">
         <f>L24*M24-N24-O23-O22-O21-O20-O19-O18-O17-O16-O15-O14-O13-O12</f>
-        <v>18900.000000000007</v>
+        <v>599.99999999999966</v>
       </c>
       <c r="P24" s="6">
         <f>C7-O24</f>
-        <v>75600</v>
+        <v>19400</v>
       </c>
       <c r="Q24" s="35">
         <f>P24</f>
-        <v>75600</v>
+        <v>19400</v>
       </c>
       <c r="R24" s="35"/>
       <c r="S24" s="68"/>
@@ -2693,15 +2694,15 @@
       <c r="M25" s="82"/>
       <c r="N25" s="83"/>
       <c r="O25" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P25" s="24">
         <f>SUM(P12:P23)</f>
-        <v>234148.8</v>
+        <v>83808.36</v>
       </c>
       <c r="Q25" s="59">
         <f>SUM(Q12:Q23)</f>
-        <v>311908.8000000001</v>
+        <v>109728.35999999999</v>
       </c>
       <c r="R25" s="59"/>
       <c r="S25" s="68"/>
@@ -2722,25 +2723,25 @@
       </c>
       <c r="L26" s="24">
         <f>C7</f>
-        <v>94500</v>
+        <v>20000</v>
       </c>
       <c r="M26" s="25" t="s">
         <v>35</v>
       </c>
       <c r="N26" s="24">
         <f>P24</f>
-        <v>75600</v>
+        <v>19400</v>
       </c>
       <c r="O26" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P26" s="24">
         <f>SUM(P12:P24)</f>
-        <v>309748.8</v>
+        <v>103208.36</v>
       </c>
       <c r="Q26" s="59">
         <f>SUM(Q12:Q24)</f>
-        <v>387508.8000000001</v>
+        <v>129128.35999999999</v>
       </c>
       <c r="R26" s="59"/>
       <c r="S26" s="68"/>
@@ -2769,14 +2770,14 @@
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
       <c r="E28" s="85"/>
       <c r="F28" s="57">
         <f>P25</f>
-        <v>234148.8</v>
+        <v>83808.36</v>
       </c>
       <c r="G28" s="57"/>
       <c r="H28" s="58" t="s">
@@ -2839,14 +2840,14 @@
     </row>
     <row r="31" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="85"/>
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
       <c r="F31" s="57">
         <f>P26</f>
-        <v>309748.8</v>
+        <v>103208.36</v>
       </c>
       <c r="G31" s="57"/>
       <c r="H31" s="58"/>
@@ -2907,14 +2908,14 @@
     </row>
     <row r="34" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="85"/>
       <c r="D34" s="85"/>
       <c r="E34" s="85"/>
       <c r="F34" s="57">
         <f>Q25-P25</f>
-        <v>77760.000000000116</v>
+        <v>25919.999999999985</v>
       </c>
       <c r="G34" s="57"/>
       <c r="H34" s="58"/>
@@ -2975,14 +2976,14 @@
     </row>
     <row r="37" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="85"/>
       <c r="D37" s="85"/>
       <c r="E37" s="85"/>
       <c r="F37" s="57">
         <f>F31+F34</f>
-        <v>387508.8000000001</v>
+        <v>129128.35999999999</v>
       </c>
       <c r="G37" s="57"/>
       <c r="H37" s="58"/>
@@ -3050,11 +3051,11 @@
       <c r="E40" s="85"/>
       <c r="F40" s="57">
         <f>SUM(O12:O24)</f>
-        <v>36787.200000000012</v>
+        <v>779.63999999999965</v>
       </c>
       <c r="G40" s="57"/>
       <c r="H40" s="86" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I40" s="58"/>
       <c r="J40" s="58"/>
@@ -3090,7 +3091,7 @@
       <c r="S41" s="68"/>
       <c r="T41" s="69"/>
     </row>
-    <row r="42" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="88"/>
       <c r="C42" s="89"/>
       <c r="D42" s="89"/>

--- a/MakeMoreMoney.xlsx
+++ b/MakeMoreMoney.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzbqrr\Desktop\MakeMoreMoney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4795C662-1DA5-4197-BF2C-B35E7E15350F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAD1D53-34B8-4985-B178-75AD526A0111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17535" xr2:uid="{83293AED-B13B-44AE-BE71-2450F74312A8}"/>
   </bookViews>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>社保(三险)缴费比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房贷还款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,6 +241,10 @@
     <t>李展博 2021.10.29
 lzbqrr@163.com
 项目地址：https://github.com/LZBUAV/MakeMoreMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人社保(三险)缴费比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,6 +947,144 @@
     <xf numFmtId="176" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,9 +1101,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,145 +1127,10 @@
     <xf numFmtId="176" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1449,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA74F41-F140-44CD-87C3-EBE0F5164B7E}">
   <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1472,118 +1472,118 @@
     <col min="15" max="15" width="39.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="33.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="21.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1"/>
+    <col min="18" max="18" width="18.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.875" style="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="21" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="62"/>
+      <c r="B2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="3" spans="2:23" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="65"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:23" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="77"/>
     </row>
     <row r="5" spans="2:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39" t="s">
+      <c r="H5" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40" t="s">
+      <c r="M5" s="84"/>
+      <c r="N5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="47" t="s">
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="64" t="s">
         <v>32</v>
       </c>
       <c r="U5" s="2"/>
@@ -1591,12 +1591,12 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1619,13 +1619,13 @@
         <v>21</v>
       </c>
       <c r="O6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="Q6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>22</v>
@@ -1633,7 +1633,7 @@
       <c r="S6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="48"/>
+      <c r="T6" s="65"/>
     </row>
     <row r="7" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
@@ -1716,83 +1716,83 @@
       <c r="T8" s="28"/>
     </row>
     <row r="9" spans="2:23" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="80"/>
     </row>
     <row r="10" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="44" t="s">
+      <c r="O10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="35" t="s">
+      <c r="P10" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="Q10" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="66" t="s">
+      <c r="R10" s="68"/>
+      <c r="S10" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="67"/>
+      <c r="T10" s="36"/>
     </row>
     <row r="11" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="12" t="s">
         <v>0</v>
       </c>
@@ -1802,19 +1802,19 @@
       <c r="G11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="69"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
     </row>
     <row r="12" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -1876,13 +1876,13 @@
         <f>C12-E12-F12-G12-H12-O12</f>
         <v>6984.03</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="63">
         <f>P12+H12+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R12" s="35"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="69"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
     </row>
     <row r="13" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1944,13 +1944,13 @@
         <f t="shared" ref="P13:P23" si="5">C13-E13-F13-G13-H13-O13</f>
         <v>6984.03</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="63">
         <f>P13+H13+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="69"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
     </row>
     <row r="14" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -2012,13 +2012,13 @@
         <f t="shared" si="5"/>
         <v>6984.03</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="63">
         <f>P14+H14+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="69"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
     </row>
     <row r="15" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -2080,13 +2080,13 @@
         <f t="shared" si="5"/>
         <v>6984.03</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="63">
         <f>P15+H15+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R15" s="35"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="69"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
     </row>
     <row r="16" spans="2:23" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -2148,13 +2148,13 @@
         <f t="shared" si="5"/>
         <v>6984.03</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="63">
         <f>P16+H16+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R16" s="35"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="69"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
     </row>
     <row r="17" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
@@ -2216,13 +2216,13 @@
         <f t="shared" si="5"/>
         <v>6984.03</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="63">
         <f>P17+H17+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="69"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
     </row>
     <row r="18" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -2284,13 +2284,13 @@
         <f t="shared" si="5"/>
         <v>6984.03</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18" s="63">
         <f>P18+H18+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R18" s="35"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="69"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
     </row>
     <row r="19" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
@@ -2352,13 +2352,13 @@
         <f t="shared" si="5"/>
         <v>6984.03</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="63">
         <f>P19+H19+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="69"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
     </row>
     <row r="20" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -2420,13 +2420,13 @@
         <f t="shared" si="5"/>
         <v>6984.03</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="63">
         <f>P20+H20+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="69"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
     </row>
     <row r="21" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
@@ -2488,13 +2488,13 @@
         <f t="shared" si="5"/>
         <v>6984.03</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="63">
         <f>P21+H21+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R21" s="35"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="69"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
     </row>
     <row r="22" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
@@ -2556,13 +2556,13 @@
         <f t="shared" si="5"/>
         <v>6984.03</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="63">
         <f>P22+H22+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R22" s="35"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="69"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
     </row>
     <row r="23" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
@@ -2624,13 +2624,13 @@
         <f t="shared" si="5"/>
         <v>6984.03</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23" s="63">
         <f>P23+H23+MIN(E7, G7)*M7</f>
         <v>9144.0299999999988</v>
       </c>
-      <c r="R23" s="35"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="69"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
     </row>
     <row r="24" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
@@ -2671,28 +2671,28 @@
         <f>C7-O24</f>
         <v>19400</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="63">
         <f>P24</f>
         <v>19400</v>
       </c>
-      <c r="R24" s="35"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="69"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="38"/>
     </row>
     <row r="25" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="83"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="52"/>
       <c r="O25" s="25" t="s">
         <v>42</v>
       </c>
@@ -2705,19 +2705,19 @@
         <v>109728.35999999999</v>
       </c>
       <c r="R25" s="59"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="69"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="38"/>
     </row>
     <row r="26" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="77"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46"/>
       <c r="K26" s="25" t="s">
         <v>36</v>
       </c>
@@ -2744,377 +2744,419 @@
         <v>129128.35999999999</v>
       </c>
       <c r="R26" s="59"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="69"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="38"/>
     </row>
     <row r="27" spans="2:20" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="69"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="38"/>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="57">
+      <c r="B28" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55">
         <f>P25</f>
         <v>83808.36</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="69"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="38"/>
     </row>
     <row r="29" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="69"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="38"/>
     </row>
     <row r="30" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="69"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="38"/>
     </row>
     <row r="31" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="57">
+      <c r="B31" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="55">
         <f>P26</f>
         <v>103208.36</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="69"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="38"/>
     </row>
     <row r="32" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="69"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="38"/>
     </row>
     <row r="33" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="69"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="38"/>
     </row>
     <row r="34" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="57">
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55">
         <f>Q25-P25</f>
         <v>25919.999999999985</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="69"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="38"/>
     </row>
     <row r="35" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="69"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="38"/>
     </row>
     <row r="36" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="69"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="38"/>
     </row>
     <row r="37" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="57">
+      <c r="B37" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55">
         <f>F31+F34</f>
         <v>129128.35999999999</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="69"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="38"/>
     </row>
     <row r="38" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="69"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="38"/>
     </row>
     <row r="39" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="69"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="38"/>
     </row>
     <row r="40" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="57">
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="55">
         <f>SUM(O12:O24)</f>
         <v>779.63999999999965</v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="69"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="38"/>
     </row>
     <row r="41" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="69"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="38"/>
     </row>
     <row r="42" spans="2:20" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="88"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="71"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="40"/>
     </row>
     <row r="43" spans="2:20" ht="21" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B9:T9"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="F37:G39"/>
+    <mergeCell ref="H28:R39"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B2:T3"/>
     <mergeCell ref="S10:T42"/>
     <mergeCell ref="B25:J27"/>
@@ -3131,48 +3173,6 @@
     <mergeCell ref="F31:G33"/>
     <mergeCell ref="F40:G42"/>
     <mergeCell ref="B37:E39"/>
-    <mergeCell ref="F37:G39"/>
-    <mergeCell ref="H28:R39"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B9:T9"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
